--- a/biology/Zoologie/Araneus_ventricosus/Araneus_ventricosus.xlsx
+++ b/biology/Zoologie/Araneus_ventricosus/Araneus_ventricosus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Araneus ventricosus est une espèce d'araignées aranéomorphes de la famille des Araneidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Araneus ventricosus est une espèce d'araignées aranéomorphes de la famille des Araneidae.
 En japonais, cette araignée porte le nom commun d'onigumo qui signifie "araignée ogre". On l'appelle aussi "araignée diable".
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Extrême-Orient russe, en Chine, en Corée, à Taïwan et au Japon[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Extrême-Orient russe, en Chine, en Corée, à Taïwan et au Japon.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette araignée tisse des toiles orbiculaires (spirales) pour capturer ses proies. Ses proies les plus courantes sont les papillons et les sauterelles.
 Les femelles de cette espèce peuvent atteindre trois centimètres de longueur. La couleur de l'araignée Araneus ventricosus comporte des tons bruns et deux lignes plus sombres strient leur abdomen en zigzag. Cette araignée peut parfois avoir des motifs de couleur blanche sur la partie dorsale. Ces motifs sont différents pour chaque araignée.
@@ -576,9 +592,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 17.0, 18/02/2016)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 17.0, 18/02/2016) :
 Araneus ventricosus abikonus Uyemura, 1961 du Japon
 Araneus ventricosus globulus Uyemura, 1961 du Japon
 Araneus ventricosus hakonensis Uyemura, 1961 du Japon
@@ -617,7 +635,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>L. Koch, 1878 : Japanesische Arachniden und Myriapoden. Verhandlungen der Zoologisch-Botanischen Gesellschaft in Wien, vol. 27, p. 735-798 (texte intégral)
 Uyemura, 1961 : Studies on the variation, lineage and distribution of the Japanese spider, Araneus ventricosus (L. Koch) (s. lat.). オニグモ Araneus ventricosus (L.Koch)(s.lat.) の変異とその系 Arachnological Society of East Asia, Osaka, p. 1-116.</t>
